--- a/门户/3月考勤.xlsx
+++ b/门户/3月考勤.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14522\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14522\Desktop\sss\Vszou\门户\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0650766-920A-45D7-A87B-780B22EB35B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47AB07-A111-4CAF-8461-FBC5DA5F3E9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="15375" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>序号</t>
   </si>
@@ -504,6 +504,10 @@
     <t>3月1号和3月4号办公室办公，共2天;
 3月5-3月15号:平安项目，共9天；
 3月18-3月29号：公司门户项目，共10天；</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦邹凌峰</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1247,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,7 +1351,7 @@
     <row r="3" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
       <c r="B3" s="37" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>138</v>
